--- a/results/factor-7-loadings.xlsx
+++ b/results/factor-7-loadings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A92E53F-191D-40A3-B8A5-EB5303DA2655}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8209F0-AFEE-48C4-A8F5-417DCEC5D86B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -106,7 +99,7 @@
     <t>tmor</t>
   </si>
   <si>
-    <t>Water Variables</t>
+    <t>ws</t>
   </si>
 </sst>
 </file>
@@ -137,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -145,15 +138,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,7 +528,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,471 +537,471 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="9">
         <v>0.72</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="9">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="9">
         <v>0.03</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="9">
         <v>-0.17</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="9">
         <v>0.04</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="9">
         <v>-0.01</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="10">
         <v>-0.16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="9">
         <v>0.92</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="9">
         <v>-0.36</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="9">
         <v>0.06</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="9">
         <v>-0.05</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="9">
         <v>0.12</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="13">
         <v>0</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="10">
         <v>0.15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="9">
         <v>-0.62</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="9">
         <v>-0.24</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="9">
         <v>0.13</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="9">
         <v>0.03</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="9">
         <v>0.21</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="9">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="10">
         <v>0.11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="9">
         <v>-0.25</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="9">
         <v>0.9</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="9">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="9">
         <v>-0.08</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="9">
         <v>-0.02</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="9">
         <v>-0.13</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="9">
         <v>0.72</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="9">
         <v>0.09</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="9">
         <v>-0.16</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="9">
         <v>0.01</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="9">
         <v>0.43</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="10">
         <v>-0.01</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="9">
         <v>-0.18</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="9">
         <v>-0.06</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="9">
         <v>0.52</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="9">
         <v>-0.49</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="9">
         <v>-0.27</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="9">
         <v>-0.11</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="10">
         <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="9">
         <v>-0.11</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="9">
         <v>-0.43</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="9">
         <v>-1.04</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="9">
         <v>-0.12</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="9">
         <v>-0.34</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="9">
         <v>0.04</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="10">
         <v>0.24</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="9">
         <v>-0.36</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="9">
         <v>-0.23</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="9">
         <v>0.16</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="9">
         <v>0.87</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="9">
         <v>-0.11</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="9">
         <v>0.02</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="10">
         <v>-0.14000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="9">
         <v>0.26</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="9">
         <v>0.19</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="9">
         <v>0.22</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="9">
         <v>0.52</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="9">
         <v>-0.11</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="9">
         <v>-0.19</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="10">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="9">
         <v>-0.19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="9">
         <v>0.06</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="9">
         <v>0.15</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="9">
         <v>-0.22</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="9">
         <v>0.86</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="9">
         <v>-0.32</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="10">
         <v>0.17</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="9">
         <v>0</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="9">
         <v>0.09</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="9">
         <v>0.06</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="9">
         <v>-0.01</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="9">
         <v>0.7</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="10">
         <v>0.04</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="9">
         <v>0.21</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="9">
         <v>0.15</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="9">
         <v>-0.09</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="9">
         <v>0.06</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="9">
         <v>0.04</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="9">
         <v>0.37</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="10">
         <v>0.61</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="9">
         <v>-0.04</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="9">
         <v>0.06</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="9">
         <v>-0.1</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="9">
         <v>0.09</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="9">
         <v>0.22</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="9">
         <v>-0.03</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="10">
         <v>-0.45</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="9">
         <v>0.1</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="9">
         <v>-0.01</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="9">
         <v>0.01</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="9">
         <v>-0.06</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="9">
         <v>0.01</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="10">
         <v>-0.3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="9">
         <v>0.08</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="9">
         <v>-0.1</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="9">
         <v>0.06</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="9">
         <v>-0.03</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="9">
         <v>0.42</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="10">
         <v>-0.04</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="9">
         <v>-0.03</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="9">
         <v>-0.09</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="9">
         <v>0.1</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="9">
         <v>-0.02</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="9">
         <v>0.06</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="10">
         <v>0.02</v>
       </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="11">
         <v>0.5</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="11">
         <v>0.39</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="11">
         <v>-0.02</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="11">
         <v>-0.01</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="11">
         <v>-0.09</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="11">
         <v>-0.08</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="12">
         <v>0.04</v>
       </c>
       <c r="I18" s="2"/>

--- a/results/factor-7-loadings.xlsx
+++ b/results/factor-7-loadings.xlsx
@@ -1,21 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1310963-6D3A-4810-9CE6-BF93318ED908}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>ws</t>
+  </si>
+  <si>
+    <t>dugwell</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>piped_home</t>
+  </si>
+  <si>
+    <t>piped_yard_tap</t>
+  </si>
+  <si>
+    <t>cheap_commercial</t>
+  </si>
+  <si>
+    <t>surface_water</t>
+  </si>
+  <si>
+    <t>pwel</t>
+  </si>
+  <si>
+    <t>uwel</t>
+  </si>
+  <si>
+    <t>watp</t>
+  </si>
+  <si>
+    <t>pspr</t>
+  </si>
+  <si>
+    <t>uspr</t>
+  </si>
+  <si>
+    <t>phom</t>
+  </si>
+  <si>
+    <t>bore</t>
+  </si>
+  <si>
+    <t>pipy</t>
+  </si>
+  <si>
+    <t>ptap</t>
+  </si>
+  <si>
+    <t>bott</t>
+  </si>
+  <si>
+    <t>surw</t>
+  </si>
+  <si>
+    <t>tles</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>truc</t>
+  </si>
+  <si>
+    <t>ctan</t>
+  </si>
+  <si>
+    <t>othw</t>
+  </si>
+  <si>
+    <t>tmor</t>
+  </si>
+  <si>
+    <t>thirty_min_less_travel</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -31,6 +117,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -40,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -48,21 +142,137 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +351,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +403,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,532 +596,485 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ws</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>dugwell</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>spring</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>piped_home</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>piped_yard_tap</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>cheap_commercial</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>surface_water</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>thirthy_min_less_travel</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>pwel</t>
-        </is>
-      </c>
-      <c r="B2">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2">
         <v>0.72</v>
       </c>
-      <c r="C2">
-        <v>-0.14</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="2">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="D2" s="2">
         <v>0.03</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>-0.17</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>0.04</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>-0.01</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>-0.16</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>uwel</t>
-        </is>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
         <v>0.92</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>-0.36</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0.06</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>-0.05</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>0.12</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>0.15</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>watp</t>
-        </is>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
         <v>-0.62</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>-0.24</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>0.13</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>0.03</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>0.21</v>
       </c>
-      <c r="G4">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="H4">
+      <c r="G4" s="2">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="H4" s="3">
         <v>0.11</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>pspr</t>
-        </is>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
         <v>-0.25</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0.9</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>0.05</v>
       </c>
-      <c r="E5">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="2">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="F5" s="2">
         <v>-0.08</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>-0.02</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>uspr</t>
-        </is>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
         <v>-0.13</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0.72</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>0.09</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>-0.16</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>0.01</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>0.43</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>phom</t>
-        </is>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2">
         <v>-0.18</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>-0.06</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>0.52</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>-0.49</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>-0.27</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>-0.11</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>0.05</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>bore</t>
-        </is>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2">
         <v>-0.11</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>-0.43</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>-1.04</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>-0.12</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>-0.34</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>0.04</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>0.24</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>pipy</t>
-        </is>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2">
         <v>-0.36</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>-0.23</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>0.16</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>0.87</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>-0.11</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>0.02</v>
       </c>
-      <c r="H9">
-        <v>-0.14</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ptap</t>
-        </is>
-      </c>
-      <c r="B10">
+      <c r="H9" s="3">
+        <v>-0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2">
         <v>0.26</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>0.19</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>0.22</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>0.52</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>-0.11</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>-0.19</v>
       </c>
-      <c r="H10">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>bott</t>
-        </is>
-      </c>
-      <c r="B11">
+      <c r="H10" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2">
         <v>-0.19</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>0.06</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>0.15</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>-0.22</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>0.86</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>-0.32</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>0.17</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>surw</t>
-        </is>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2">
         <v>0</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>0.09</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>0.06</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>-0.01</v>
       </c>
-      <c r="F12">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G12" s="2">
         <v>0.7</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>0.04</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>tles</t>
-        </is>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2">
         <v>0.21</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>0.15</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>-0.09</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>0.06</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>0.04</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>0.37</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>0.61</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>rain</t>
-        </is>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2">
         <v>-0.04</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>0.06</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>-0.1</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>0.09</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>0.22</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>-0.03</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>-0.45</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>truc</t>
-        </is>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2">
         <v>0.1</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>-0.01</v>
       </c>
-      <c r="D15">
-        <v>0.14</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E15" s="2">
         <v>0.01</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>-0.06</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>0.01</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ctan</t>
-        </is>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2">
         <v>0.08</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>-0.1</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>0.06</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>-0.03</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>0.42</v>
       </c>
-      <c r="G16">
-        <v>0.14</v>
-      </c>
-      <c r="H16">
+      <c r="G16" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H16" s="3">
         <v>-0.04</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>othw</t>
-        </is>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2">
         <v>-0.03</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>-0.09</v>
       </c>
-      <c r="D17">
-        <v>0.28</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E17" s="2">
         <v>0.1</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>-0.02</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>0.06</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>0.02</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>tmor</t>
-        </is>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="5">
         <v>0.5</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <v>0.39</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <v>-0.02</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <v>-0.01</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="5">
         <v>-0.09</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="5">
         <v>-0.08</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="6">
         <v>0.04</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/factor-7-loadings.xlsx
+++ b/results/factor-7-loadings.xlsx
@@ -1,48 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1310963-6D3A-4810-9CE6-BF93318ED908}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E370E9-04C5-402C-8A59-6BEB5090F917}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name=".2 cutoff" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$2:$K$18</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>ws</t>
   </si>
   <si>
-    <t>dugwell</t>
-  </si>
-  <si>
-    <t>spring</t>
-  </si>
-  <si>
-    <t>piped_home</t>
-  </si>
-  <si>
-    <t>piped_yard_tap</t>
-  </si>
-  <si>
-    <t>cheap_commercial</t>
-  </si>
-  <si>
-    <t>surface_water</t>
-  </si>
-  <si>
     <t>pwel</t>
   </si>
   <si>
@@ -94,14 +80,32 @@
     <t>tmor</t>
   </si>
   <si>
-    <t>thirty_min_less_travel</t>
+    <t>Far-away Dugwell</t>
+  </si>
+  <si>
+    <t>Bottle, Rain, Vendors</t>
+  </si>
+  <si>
+    <t>Piped to homes</t>
+  </si>
+  <si>
+    <t>Near-by borehole</t>
+  </si>
+  <si>
+    <t>Piped to Yard and Tap</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Near-by Surface</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +129,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -238,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,6 +269,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,43 +612,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>0.72</v>
@@ -656,10 +671,11 @@
       <c r="H2" s="3">
         <v>-0.16</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>0.92</v>
@@ -682,10 +698,11 @@
       <c r="H3" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>-0.62</v>
@@ -708,10 +725,11 @@
       <c r="H4" s="3">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>-0.25</v>
@@ -734,10 +752,11 @@
       <c r="H5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>-0.13</v>
@@ -760,10 +779,12 @@
       <c r="H6" s="3">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J6" s="13"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>-0.18</v>
@@ -786,10 +807,11 @@
       <c r="H7" s="3">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>-0.11</v>
@@ -812,10 +834,11 @@
       <c r="H8" s="3">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>-0.36</v>
@@ -838,10 +861,11 @@
       <c r="H9" s="3">
         <v>-0.14000000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>0.26</v>
@@ -864,10 +888,11 @@
       <c r="H10" s="3">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>-0.19</v>
@@ -890,10 +915,11 @@
       <c r="H11" s="3">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -916,10 +942,11 @@
       <c r="H12" s="3">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>0.21</v>
@@ -942,10 +969,11 @@
       <c r="H13" s="3">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>-0.04</v>
@@ -968,10 +996,11 @@
       <c r="H14" s="3">
         <v>-0.45</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>0.1</v>
@@ -994,10 +1023,11 @@
       <c r="H15" s="3">
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>0.08</v>
@@ -1020,10 +1050,11 @@
       <c r="H16" s="3">
         <v>-0.04</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>-0.03</v>
@@ -1046,10 +1077,11 @@
       <c r="H17" s="3">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5">
         <v>0.5</v>
@@ -1072,9 +1104,331 @@
       <c r="H18" s="6">
         <v>0.04</v>
       </c>
+      <c r="J18" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF43EED-2C2C-4266-BB35-1E58C138F2E1}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-0.36</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-0.62</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-0.24</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-0.25</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-0.49</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-0.27</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
+        <v>-0.43</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-1.04</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
+        <v>-0.34</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-0.36</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-0.23</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
+        <v>-0.22</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-0.32</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/factor-7-loadings.xlsx
+++ b/results/factor-7-loadings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E370E9-04C5-402C-8A59-6BEB5090F917}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BF39E7-43EA-46EF-A783-8B7EAC8839A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="2328" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -614,7 +614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -1116,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF43EED-2C2C-4266-BB35-1E58C138F2E1}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/results/factor-7-loadings.xlsx
+++ b/results/factor-7-loadings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BF39E7-43EA-46EF-A783-8B7EAC8839A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AA3F5B-F82E-4B12-88F1-90BC1EF074D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="2328" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>ws</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Near-by Surface</t>
+  </si>
+  <si>
+    <t>Package Water</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1120,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1139,7 +1142,7 @@
         <v>22</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>24</v>

--- a/results/factor-7-loadings.xlsx
+++ b/results/factor-7-loadings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AA3F5B-F82E-4B12-88F1-90BC1EF074D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF577AE7-76A1-468A-8B20-A2E64B2C78C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="2328" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="2328" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>ws</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>Far-away Dugwell</t>
-  </si>
-  <si>
-    <t>Bottle, Rain, Vendors</t>
   </si>
   <si>
     <t>Piped to homes</t>
@@ -617,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,22 +628,22 @@
         <v>18</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1119,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF43EED-2C2C-4266-BB35-1E58C138F2E1}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1133,22 +1130,22 @@
         <v>18</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">

--- a/results/factor-7-loadings.xlsx
+++ b/results/factor-7-loadings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF577AE7-76A1-468A-8B20-A2E64B2C78C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD2C899-15F7-431E-B55B-92118FC4A03E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="2328" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>ws</t>
   </si>
@@ -99,6 +99,27 @@
   </si>
   <si>
     <t>Package Water</t>
+  </si>
+  <si>
+    <t>Far Well</t>
+  </si>
+  <si>
+    <t>Far Spring</t>
+  </si>
+  <si>
+    <t>Piped Indoors</t>
+  </si>
+  <si>
+    <t>Piped Outdoors</t>
+  </si>
+  <si>
+    <t>Vended</t>
+  </si>
+  <si>
+    <t>Nearby Surface</t>
+  </si>
+  <si>
+    <t>Nearby Improved</t>
   </si>
 </sst>
 </file>
@@ -615,7 +636,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="K6" sqref="K5:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,25 +646,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">

--- a/results/factor-7-loadings.xlsx
+++ b/results/factor-7-loadings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD2C899-15F7-431E-B55B-92118FC4A03E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AB3814-AA58-45C2-8E75-EC3254F47CA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>ws</t>
   </si>
@@ -120,6 +120,57 @@
   </si>
   <si>
     <t>Nearby Improved</t>
+  </si>
+  <si>
+    <t>Protected Well</t>
+  </si>
+  <si>
+    <t>Unprotected Well</t>
+  </si>
+  <si>
+    <t>On-Premise</t>
+  </si>
+  <si>
+    <t>Protected Spring</t>
+  </si>
+  <si>
+    <t>Unprotected Spring</t>
+  </si>
+  <si>
+    <t>Borehole</t>
+  </si>
+  <si>
+    <t>Piped (Yard)</t>
+  </si>
+  <si>
+    <t>Piped (Dwelling)</t>
+  </si>
+  <si>
+    <t>Public Tap</t>
+  </si>
+  <si>
+    <t>Bottle</t>
+  </si>
+  <si>
+    <t>Surface</t>
+  </si>
+  <si>
+    <t>T&lt;30min</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Truck</t>
+  </si>
+  <si>
+    <t>Tanker Cart</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>T&gt;30min</t>
   </si>
 </sst>
 </file>
@@ -636,10 +687,13 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K5:K6"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
@@ -669,7 +723,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2">
         <v>0.72</v>
@@ -696,7 +750,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2">
         <v>0.92</v>
@@ -723,7 +777,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2">
         <v>-0.62</v>
@@ -750,7 +804,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2">
         <v>-0.25</v>
@@ -777,7 +831,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2">
         <v>-0.13</v>
@@ -805,7 +859,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2">
         <v>-0.18</v>
@@ -832,7 +886,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2">
         <v>-0.11</v>
@@ -859,7 +913,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2">
         <v>-0.36</v>
@@ -886,7 +940,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2">
         <v>0.26</v>
@@ -913,7 +967,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2">
         <v>-0.19</v>
@@ -940,7 +994,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -967,7 +1021,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2">
         <v>0.21</v>
@@ -994,7 +1048,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2">
         <v>-0.04</v>
@@ -1021,7 +1075,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B15" s="2">
         <v>0.1</v>
@@ -1048,7 +1102,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2">
         <v>0.08</v>
@@ -1075,7 +1129,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B17" s="2">
         <v>-0.03</v>
@@ -1102,7 +1156,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B18" s="5">
         <v>0.5</v>

--- a/results/factor-7-loadings.xlsx
+++ b/results/factor-7-loadings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AB3814-AA58-45C2-8E75-EC3254F47CA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096178F0-AC4A-4903-B486-DFE630C5EFA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>ws</t>
   </si>
@@ -149,9 +149,6 @@
     <t>Public Tap</t>
   </si>
   <si>
-    <t>Bottle</t>
-  </si>
-  <si>
     <t>Surface</t>
   </si>
   <si>
@@ -171,6 +168,12 @@
   </si>
   <si>
     <t>T&gt;30min</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Bottled</t>
   </si>
 </sst>
 </file>
@@ -687,7 +690,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,7 +700,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>25</v>
@@ -723,55 +726,55 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2">
-        <v>0.72</v>
-      </c>
-      <c r="C2" s="2">
-        <v>-0.14000000000000001</v>
+        <v>-0.11</v>
+      </c>
+      <c r="C2" s="4">
+        <v>-0.43</v>
       </c>
       <c r="D2" s="2">
-        <v>0.03</v>
+        <v>-1.04</v>
       </c>
       <c r="E2" s="2">
-        <v>-0.17</v>
+        <v>-0.12</v>
       </c>
       <c r="F2" s="2">
+        <v>-0.34</v>
+      </c>
+      <c r="G2" s="2">
         <v>0.04</v>
       </c>
-      <c r="G2" s="2">
-        <v>-0.01</v>
-      </c>
       <c r="H2" s="3">
-        <v>-0.16</v>
+        <v>0.24</v>
       </c>
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2">
-        <v>0.92</v>
+        <v>-0.19</v>
       </c>
       <c r="C3" s="2">
-        <v>-0.36</v>
+        <v>0.06</v>
       </c>
       <c r="D3" s="2">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="E3" s="2">
-        <v>-0.05</v>
+        <v>-0.22</v>
       </c>
       <c r="F3" s="2">
-        <v>0.12</v>
+        <v>0.86</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>-0.32</v>
       </c>
       <c r="H3" s="3">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="J3" s="13"/>
     </row>
@@ -804,137 +807,137 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2">
-        <v>-0.25</v>
+        <v>-0.03</v>
       </c>
       <c r="C5" s="2">
-        <v>0.9</v>
+        <v>-0.09</v>
       </c>
       <c r="D5" s="2">
-        <v>0.05</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E5" s="2">
-        <v>-7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F5" s="2">
-        <v>-0.08</v>
+        <v>-0.02</v>
       </c>
       <c r="G5" s="2">
-        <v>-0.02</v>
+        <v>0.06</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2">
-        <v>-0.13</v>
+        <v>-0.18</v>
       </c>
       <c r="C6" s="2">
-        <v>0.72</v>
+        <v>-0.06</v>
       </c>
       <c r="D6" s="2">
-        <v>0.09</v>
+        <v>0.52</v>
       </c>
       <c r="E6" s="2">
-        <v>-0.16</v>
+        <v>-0.49</v>
       </c>
       <c r="F6" s="2">
-        <v>0.01</v>
+        <v>-0.27</v>
       </c>
       <c r="G6" s="2">
-        <v>0.43</v>
+        <v>-0.11</v>
       </c>
       <c r="H6" s="3">
-        <v>-0.01</v>
+        <v>0.05</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2">
-        <v>-0.18</v>
+        <v>-0.36</v>
       </c>
       <c r="C7" s="2">
-        <v>-0.06</v>
+        <v>-0.23</v>
       </c>
       <c r="D7" s="2">
-        <v>0.52</v>
+        <v>0.16</v>
       </c>
       <c r="E7" s="2">
-        <v>-0.49</v>
+        <v>0.87</v>
       </c>
       <c r="F7" s="2">
-        <v>-0.27</v>
+        <v>-0.11</v>
       </c>
       <c r="G7" s="2">
-        <v>-0.11</v>
+        <v>0.02</v>
       </c>
       <c r="H7" s="3">
-        <v>0.05</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2">
-        <v>-0.11</v>
-      </c>
-      <c r="C8" s="4">
-        <v>-0.43</v>
+        <v>-0.25</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.9</v>
       </c>
       <c r="D8" s="2">
-        <v>-1.04</v>
+        <v>0.05</v>
       </c>
       <c r="E8" s="2">
-        <v>-0.12</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="F8" s="2">
-        <v>-0.34</v>
+        <v>-0.08</v>
       </c>
       <c r="G8" s="2">
-        <v>0.04</v>
+        <v>-0.02</v>
       </c>
       <c r="H8" s="3">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2">
-        <v>-0.36</v>
+        <v>0.72</v>
       </c>
       <c r="C9" s="2">
-        <v>-0.23</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="D9" s="2">
-        <v>0.16</v>
+        <v>0.03</v>
       </c>
       <c r="E9" s="2">
-        <v>0.87</v>
+        <v>-0.17</v>
       </c>
       <c r="F9" s="2">
-        <v>-0.11</v>
+        <v>0.04</v>
       </c>
       <c r="G9" s="2">
-        <v>0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="H9" s="3">
-        <v>-0.14000000000000001</v>
+        <v>-0.16</v>
       </c>
       <c r="J9" s="13"/>
     </row>
@@ -967,34 +970,34 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2">
-        <v>-0.19</v>
+        <v>-0.04</v>
       </c>
       <c r="C11" s="2">
         <v>0.06</v>
       </c>
       <c r="D11" s="2">
-        <v>0.15</v>
+        <v>-0.1</v>
       </c>
       <c r="E11" s="2">
-        <v>-0.22</v>
+        <v>0.09</v>
       </c>
       <c r="F11" s="2">
-        <v>0.86</v>
+        <v>0.22</v>
       </c>
       <c r="G11" s="2">
-        <v>-0.32</v>
+        <v>-0.03</v>
       </c>
       <c r="H11" s="3">
-        <v>0.17</v>
+        <v>-0.45</v>
       </c>
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -1021,7 +1024,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="2">
         <v>0.21</v>
@@ -1048,28 +1051,28 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2">
-        <v>-0.04</v>
+        <v>0.5</v>
       </c>
       <c r="C14" s="2">
-        <v>0.06</v>
+        <v>0.39</v>
       </c>
       <c r="D14" s="2">
-        <v>-0.1</v>
+        <v>-0.02</v>
       </c>
       <c r="E14" s="2">
-        <v>0.09</v>
+        <v>-0.01</v>
       </c>
       <c r="F14" s="2">
-        <v>0.22</v>
+        <v>-0.09</v>
       </c>
       <c r="G14" s="2">
-        <v>-0.03</v>
+        <v>-0.08</v>
       </c>
       <c r="H14" s="3">
-        <v>-0.45</v>
+        <v>0.04</v>
       </c>
       <c r="J14" s="13"/>
     </row>
@@ -1078,110 +1081,113 @@
         <v>45</v>
       </c>
       <c r="B15" s="2">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="C15" s="2">
-        <v>-0.01</v>
+        <v>-0.1</v>
       </c>
       <c r="D15" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="E15" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="G15" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E15" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="F15" s="2">
-        <v>-0.06</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.01</v>
-      </c>
       <c r="H15" s="3">
-        <v>-0.3</v>
+        <v>-0.04</v>
       </c>
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="C16" s="2">
-        <v>-0.1</v>
+        <v>-0.01</v>
       </c>
       <c r="D16" s="2">
-        <v>0.06</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E16" s="2">
-        <v>-0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F16" s="2">
-        <v>0.42</v>
+        <v>-0.06</v>
       </c>
       <c r="G16" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="H16" s="3">
-        <v>-0.04</v>
+        <v>-0.3</v>
       </c>
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2">
-        <v>-0.03</v>
+        <v>-0.13</v>
       </c>
       <c r="C17" s="2">
-        <v>-0.09</v>
+        <v>0.72</v>
       </c>
       <c r="D17" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.09</v>
       </c>
       <c r="E17" s="2">
-        <v>0.1</v>
+        <v>-0.16</v>
       </c>
       <c r="F17" s="2">
-        <v>-0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G17" s="2">
-        <v>0.06</v>
+        <v>0.43</v>
       </c>
       <c r="H17" s="3">
-        <v>0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B18" s="5">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="C18" s="5">
-        <v>0.39</v>
+        <v>-0.36</v>
       </c>
       <c r="D18" s="5">
-        <v>-0.02</v>
+        <v>0.06</v>
       </c>
       <c r="E18" s="5">
-        <v>-0.01</v>
+        <v>-0.05</v>
       </c>
       <c r="F18" s="5">
-        <v>-0.09</v>
+        <v>0.12</v>
       </c>
       <c r="G18" s="5">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="H18" s="6">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="J18" s="13"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H18">
+    <sortCondition ref="A3:A18"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/results/factor-7-loadings.xlsx
+++ b/results/factor-7-loadings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096178F0-AC4A-4903-B486-DFE630C5EFA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD21771-609A-4310-8588-8978FEAE29FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -330,7 +330,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -349,6 +348,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,7 +690,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,250 +699,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>37</v>
+      <c r="A2" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="B2" s="2">
-        <v>-0.11</v>
-      </c>
-      <c r="C2" s="4">
-        <v>-0.43</v>
+        <v>0.92</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-0.36</v>
       </c>
       <c r="D2" s="2">
-        <v>-1.04</v>
+        <v>0.06</v>
       </c>
       <c r="E2" s="2">
-        <v>-0.12</v>
+        <v>-0.05</v>
       </c>
       <c r="F2" s="2">
-        <v>-0.34</v>
+        <v>0.12</v>
       </c>
       <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-0.13</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-0.16</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="H3" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-0.01</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-0.06</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H4" s="3">
+        <v>-0.3</v>
+      </c>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H5" s="3">
+        <v>-0.04</v>
+      </c>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-0.02</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-0.01</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-0.09</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-0.08</v>
+      </c>
+      <c r="H6" s="3">
         <v>0.04</v>
       </c>
-      <c r="H2" s="3">
-        <v>0.24</v>
-      </c>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="2">
-        <v>-0.19</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="J6" s="12"/>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-0.09</v>
+      </c>
+      <c r="E7" s="2">
         <v>0.06</v>
       </c>
-      <c r="D3" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="E3" s="2">
-        <v>-0.22</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.86</v>
-      </c>
-      <c r="G3" s="2">
-        <v>-0.32</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="2">
-        <v>-0.62</v>
-      </c>
-      <c r="C4" s="2">
-        <v>-0.24</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="G4" s="2">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="F7" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-0.01</v>
+      </c>
+      <c r="F8" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-0.04</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="G9" s="2">
         <v>-0.03</v>
       </c>
-      <c r="C5" s="2">
-        <v>-0.09</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>-0.02</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="2">
-        <v>-0.18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>-0.06</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="E6" s="2">
-        <v>-0.49</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-0.27</v>
-      </c>
-      <c r="G6" s="2">
-        <v>-0.11</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="2">
-        <v>-0.36</v>
-      </c>
-      <c r="C7" s="2">
-        <v>-0.23</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.87</v>
-      </c>
-      <c r="F7" s="2">
-        <v>-0.11</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="H7" s="3">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="2">
-        <v>-0.25</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="E8" s="2">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>-0.08</v>
-      </c>
-      <c r="G8" s="2">
-        <v>-0.02</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.72</v>
-      </c>
-      <c r="C9" s="2">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="E9" s="2">
-        <v>-0.17</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="G9" s="2">
-        <v>-0.01</v>
-      </c>
       <c r="H9" s="3">
-        <v>-0.16</v>
-      </c>
-      <c r="J9" s="13"/>
+        <v>-0.45</v>
+      </c>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="2">
@@ -966,227 +966,227 @@
       <c r="H10" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J10" s="13"/>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>43</v>
+      <c r="A11" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="B11" s="2">
-        <v>-0.04</v>
+        <v>0.72</v>
       </c>
       <c r="C11" s="2">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-0.17</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-0.01</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-0.16</v>
+      </c>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-0.25</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-0.08</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-0.02</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-0.36</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-0.23</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-0.11</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="H13" s="3">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-0.18</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-0.06</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-0.49</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-0.27</v>
+      </c>
+      <c r="G14" s="2">
+        <v>-0.11</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-0.09</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-0.02</v>
+      </c>
+      <c r="G15" s="2">
         <v>0.06</v>
       </c>
-      <c r="D11" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="G11" s="2">
-        <v>-0.03</v>
-      </c>
-      <c r="H11" s="3">
-        <v>-0.45</v>
-      </c>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="H15" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2">
+        <v>-0.62</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-0.24</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="G16" s="2">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-0.19</v>
+      </c>
+      <c r="C17" s="2">
         <v>0.06</v>
       </c>
-      <c r="E12" s="2">
-        <v>-0.01</v>
-      </c>
-      <c r="F12" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="D17" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E17" s="2">
+        <v>-0.22</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-0.32</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="4">
+        <v>-0.11</v>
+      </c>
+      <c r="C18" s="14">
+        <v>-0.43</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-1.04</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-0.12</v>
+      </c>
+      <c r="F18" s="4">
+        <v>-0.34</v>
+      </c>
+      <c r="G18" s="4">
         <v>0.04</v>
       </c>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="D13" s="2">
-        <v>-0.09</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.61</v>
-      </c>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.39</v>
-      </c>
-      <c r="D14" s="2">
-        <v>-0.02</v>
-      </c>
-      <c r="E14" s="2">
-        <v>-0.01</v>
-      </c>
-      <c r="F14" s="2">
-        <v>-0.09</v>
-      </c>
-      <c r="G14" s="2">
-        <v>-0.08</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="C15" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="E15" s="2">
-        <v>-0.03</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-0.04</v>
-      </c>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C16" s="2">
-        <v>-0.01</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="F16" s="2">
-        <v>-0.06</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H16" s="3">
-        <v>-0.3</v>
-      </c>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="2">
-        <v>-0.13</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.72</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="E17" s="2">
-        <v>-0.16</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="H17" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="C18" s="5">
-        <v>-0.36</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="E18" s="5">
-        <v>-0.05</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="J18" s="13"/>
+      <c r="H18" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="J18" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H18">
-    <sortCondition ref="A3:A18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H18">
+    <sortCondition descending="1" ref="A1:A18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1204,33 +1204,33 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -1244,7 +1244,7 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
@@ -1260,7 +1260,7 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
@@ -1278,7 +1278,7 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
@@ -1294,10 +1294,10 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="2">
         <v>0.72</v>
       </c>
@@ -1310,7 +1310,7 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2"/>
@@ -1328,7 +1328,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2"/>
@@ -1348,7 +1348,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2">
@@ -1366,7 +1366,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2">
@@ -1386,7 +1386,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
@@ -1404,7 +1404,7 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2"/>
@@ -1418,7 +1418,7 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2">
@@ -1436,7 +1436,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="2"/>
@@ -1452,7 +1452,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="2"/>
@@ -1466,7 +1466,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2"/>
@@ -1480,7 +1480,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="2"/>
@@ -1494,20 +1494,20 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>0.5</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>0.39</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/factor-7-loadings.xlsx
+++ b/results/factor-7-loadings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD21771-609A-4310-8588-8978FEAE29FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212488AE-5F99-4CB8-8957-92B79F75256C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="528" yWindow="2676" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -690,7 +690,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/results/factor-7-loadings.xlsx
+++ b/results/factor-7-loadings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212488AE-5F99-4CB8-8957-92B79F75256C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A652218-4678-417F-BB44-A5282DFA423C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="528" yWindow="2676" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,9 +128,6 @@
     <t>Unprotected Well</t>
   </si>
   <si>
-    <t>On-Premise</t>
-  </si>
-  <si>
     <t>Protected Spring</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>Bottled</t>
+  </si>
+  <si>
+    <t>On-Premises</t>
   </si>
 </sst>
 </file>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,7 +700,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>25</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2">
         <v>-0.13</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2">
         <v>0.1</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2">
         <v>0.08</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2">
         <v>0.5</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2">
         <v>0.21</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2">
         <v>-0.04</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2">
         <v>0.26</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2">
         <v>-0.25</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2">
         <v>-0.36</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2">
         <v>-0.18</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="2">
         <v>-0.03</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B16" s="2">
         <v>-0.62</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2">
         <v>-0.19</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="4">
         <v>-0.11</v>
